--- a/results/mp/logistic/home-spam/confidence/84/stop-words-topk-desired-masking-0.5/avg_0.003_scores.xlsx
+++ b/results/mp/logistic/home-spam/confidence/84/stop-words-topk-desired-masking-0.5/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="121">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,213 +43,222 @@
     <t>return</t>
   </si>
   <si>
+    <t>stopped</t>
+  </si>
+  <si>
     <t>returned</t>
   </si>
   <si>
     <t>waste</t>
   </si>
   <si>
+    <t>poor</t>
+  </si>
+  <si>
+    <t>maybe</t>
+  </si>
+  <si>
+    <t>junk</t>
+  </si>
+  <si>
     <t>broke</t>
   </si>
   <si>
+    <t>ok</t>
+  </si>
+  <si>
     <t>broken</t>
   </si>
   <si>
-    <t>ok</t>
-  </si>
-  <si>
     <t>thin</t>
   </si>
   <si>
+    <t>guess</t>
+  </si>
+  <si>
+    <t>disappointed</t>
+  </si>
+  <si>
+    <t>difficult</t>
+  </si>
+  <si>
     <t>months</t>
   </si>
   <si>
-    <t>stopped</t>
-  </si>
-  <si>
-    <t>disappointed</t>
-  </si>
-  <si>
     <t>cheap</t>
   </si>
   <si>
+    <t>back</t>
+  </si>
+  <si>
+    <t>filter</t>
+  </si>
+  <si>
+    <t>grind</t>
+  </si>
+  <si>
+    <t>filters</t>
+  </si>
+  <si>
     <t>plastic</t>
   </si>
   <si>
-    <t>back</t>
-  </si>
-  <si>
-    <t>maybe</t>
-  </si>
-  <si>
-    <t>difficult</t>
-  </si>
-  <si>
-    <t>filter</t>
-  </si>
-  <si>
-    <t>grind</t>
-  </si>
-  <si>
-    <t>poor</t>
-  </si>
-  <si>
-    <t>junk</t>
+    <t>cracked</t>
+  </si>
+  <si>
+    <t>however</t>
   </si>
   <si>
     <t>lid</t>
   </si>
   <si>
+    <t>apart</t>
+  </si>
+  <si>
+    <t>sent</t>
+  </si>
+  <si>
+    <t>piece</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>useless</t>
+  </si>
+  <si>
+    <t>iron</t>
+  </si>
+  <si>
+    <t>fl</t>
+  </si>
+  <si>
+    <t>received</t>
+  </si>
+  <si>
+    <t>half</t>
+  </si>
+  <si>
+    <t>less</t>
+  </si>
+  <si>
+    <t>worked</t>
+  </si>
+  <si>
     <t>okay</t>
   </si>
   <si>
-    <t>sent</t>
-  </si>
-  <si>
-    <t>however</t>
-  </si>
-  <si>
-    <t>fl</t>
-  </si>
-  <si>
-    <t>filters</t>
-  </si>
-  <si>
-    <t>useless</t>
+    <t>fit</t>
   </si>
   <si>
     <t>rust</t>
   </si>
   <si>
-    <t>1</t>
+    <t>side</t>
+  </si>
+  <si>
+    <t>machine</t>
+  </si>
+  <si>
+    <t>lasted</t>
+  </si>
+  <si>
+    <t>otherwise</t>
   </si>
   <si>
     <t>thought</t>
   </si>
   <si>
-    <t>guess</t>
-  </si>
-  <si>
-    <t>received</t>
-  </si>
-  <si>
-    <t>piece</t>
-  </si>
-  <si>
-    <t>side</t>
-  </si>
-  <si>
-    <t>worked</t>
-  </si>
-  <si>
-    <t>iron</t>
-  </si>
-  <si>
-    <t>less</t>
+    <t>tried</t>
+  </si>
+  <si>
+    <t>hard</t>
+  </si>
+  <si>
+    <t>unit</t>
+  </si>
+  <si>
+    <t>work</t>
+  </si>
+  <si>
+    <t>put</t>
+  </si>
+  <si>
+    <t>way</t>
+  </si>
+  <si>
+    <t>even</t>
+  </si>
+  <si>
+    <t>small</t>
+  </si>
+  <si>
+    <t>smaller</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>hold</t>
+  </si>
+  <si>
+    <t>think</t>
   </si>
   <si>
     <t>bottom</t>
   </si>
   <si>
-    <t>fit</t>
-  </si>
-  <si>
-    <t>work</t>
-  </si>
-  <si>
-    <t>apart</t>
-  </si>
-  <si>
-    <t>hard</t>
-  </si>
-  <si>
-    <t>lasted</t>
-  </si>
-  <si>
-    <t>tried</t>
-  </si>
-  <si>
-    <t>way</t>
-  </si>
-  <si>
-    <t>think</t>
-  </si>
-  <si>
-    <t>even</t>
-  </si>
-  <si>
-    <t>machine</t>
-  </si>
-  <si>
-    <t>unit</t>
-  </si>
-  <si>
-    <t>small</t>
-  </si>
-  <si>
-    <t>smaller</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>hold</t>
+    <t>maker</t>
+  </si>
+  <si>
+    <t>found</t>
   </si>
   <si>
     <t>would</t>
   </si>
   <si>
+    <t>water</t>
+  </si>
+  <si>
+    <t>first</t>
+  </si>
+  <si>
     <t>item</t>
   </si>
   <si>
-    <t>put</t>
-  </si>
-  <si>
-    <t>first</t>
-  </si>
-  <si>
-    <t>expected</t>
+    <t>product</t>
   </si>
   <si>
     <t>money</t>
   </si>
   <si>
-    <t>water</t>
-  </si>
-  <si>
-    <t>product</t>
+    <t>3</t>
   </si>
   <si>
     <t>get</t>
   </si>
   <si>
-    <t>two</t>
-  </si>
-  <si>
     <t>price</t>
   </si>
   <si>
+    <t>buy</t>
+  </si>
+  <si>
+    <t>size</t>
+  </si>
+  <si>
     <t>better</t>
   </si>
   <si>
-    <t>much</t>
-  </si>
-  <si>
-    <t>buy</t>
-  </si>
-  <si>
     <t>made</t>
   </si>
   <si>
+    <t>used</t>
+  </si>
+  <si>
     <t>bought</t>
   </si>
   <si>
-    <t>used</t>
-  </si>
-  <si>
-    <t>recommend</t>
-  </si>
-  <si>
     <t>use</t>
   </si>
   <si>
@@ -259,48 +268,51 @@
     <t>negative</t>
   </si>
   <si>
+    <t>excellent</t>
+  </si>
+  <si>
     <t>loves</t>
   </si>
   <si>
-    <t>excellent</t>
+    <t>love</t>
+  </si>
+  <si>
+    <t>awesome</t>
+  </si>
+  <si>
+    <t>perfect</t>
   </si>
   <si>
     <t>pleased</t>
   </si>
   <si>
-    <t>awesome</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>perfect</t>
-  </si>
-  <si>
     <t>best</t>
   </si>
   <si>
     <t>perfectly</t>
   </si>
   <si>
+    <t>handy</t>
+  </si>
+  <si>
     <t>salad</t>
   </si>
   <si>
     <t>highly</t>
   </si>
   <si>
-    <t>satisfied</t>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>ze</t>
   </si>
   <si>
     <t>glad</t>
   </si>
   <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
     <t>potatoes</t>
   </si>
   <si>
@@ -310,34 +322,46 @@
     <t>great</t>
   </si>
   <si>
-    <t>ze</t>
-  </si>
-  <si>
-    <t>loved</t>
-  </si>
-  <si>
-    <t>cakes</t>
+    <t>grip</t>
+  </si>
+  <si>
+    <t>simple</t>
+  </si>
+  <si>
+    <t>cream</t>
   </si>
   <si>
     <t>easy</t>
   </si>
   <si>
+    <t>pressure</t>
+  </si>
+  <si>
+    <t>ice</t>
+  </si>
+  <si>
     <t>cake</t>
   </si>
   <si>
+    <t>ox</t>
+  </si>
+  <si>
     <t>ever</t>
   </si>
   <si>
     <t>keeps</t>
   </si>
   <si>
+    <t>gift</t>
+  </si>
+  <si>
     <t>sturdy</t>
   </si>
   <si>
     <t>nice</t>
   </si>
   <si>
-    <t>gift</t>
+    <t>kitchen</t>
   </si>
   <si>
     <t>quality</t>
@@ -710,7 +734,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q74"/>
+  <dimension ref="A1:Q77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -718,10 +742,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="J1" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -800,16 +824,16 @@
         <v>2</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="K3">
-        <v>0.9139784946236559</v>
+        <v>0.90625</v>
       </c>
       <c r="L3">
-        <v>85</v>
+        <v>116</v>
       </c>
       <c r="M3">
-        <v>85</v>
+        <v>116</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -821,7 +845,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -829,13 +853,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.9595959595959596</v>
+        <v>0.9622641509433962</v>
       </c>
       <c r="C4">
-        <v>95</v>
+        <v>51</v>
       </c>
       <c r="D4">
-        <v>95</v>
+        <v>51</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -847,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="K4">
-        <v>0.90625</v>
+        <v>0.8709677419354839</v>
       </c>
       <c r="L4">
-        <v>116</v>
+        <v>81</v>
       </c>
       <c r="M4">
-        <v>116</v>
+        <v>81</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -879,13 +903,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9576271186440678</v>
+        <v>0.9494949494949495</v>
       </c>
       <c r="C5">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="D5">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -900,16 +924,16 @@
         <v>5</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="K5">
-        <v>0.8571428571428571</v>
+        <v>0.8653250773993808</v>
       </c>
       <c r="L5">
-        <v>66</v>
+        <v>559</v>
       </c>
       <c r="M5">
-        <v>66</v>
+        <v>559</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -921,7 +945,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>11</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -929,13 +953,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8918918918918919</v>
+        <v>0.940677966101695</v>
       </c>
       <c r="C6">
-        <v>165</v>
+        <v>111</v>
       </c>
       <c r="D6">
-        <v>165</v>
+        <v>111</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -947,10 +971,10 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="K6">
         <v>0.8478260869565217</v>
@@ -979,13 +1003,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.8666666666666667</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="C7">
-        <v>78</v>
+        <v>47</v>
       </c>
       <c r="D7">
-        <v>78</v>
+        <v>47</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -997,19 +1021,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="K7">
-        <v>0.8359133126934984</v>
+        <v>0.8440677966101695</v>
       </c>
       <c r="L7">
-        <v>540</v>
+        <v>249</v>
       </c>
       <c r="M7">
-        <v>540</v>
+        <v>249</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1021,7 +1045,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>106</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1029,13 +1053,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.8592592592592593</v>
+        <v>0.9056603773584906</v>
       </c>
       <c r="C8">
-        <v>116</v>
+        <v>48</v>
       </c>
       <c r="D8">
-        <v>116</v>
+        <v>48</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1047,19 +1071,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="K8">
-        <v>0.823728813559322</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="L8">
-        <v>243</v>
+        <v>63</v>
       </c>
       <c r="M8">
-        <v>243</v>
+        <v>63</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1071,7 +1095,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>52</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1079,13 +1103,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.8493150684931506</v>
+        <v>0.9038461538461539</v>
       </c>
       <c r="C9">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="D9">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1097,19 +1121,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="K9">
-        <v>0.7445887445887446</v>
+        <v>0.7489177489177489</v>
       </c>
       <c r="L9">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M9">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1121,7 +1145,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1129,13 +1153,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.8207547169811321</v>
+        <v>0.8864864864864865</v>
       </c>
       <c r="C10">
-        <v>87</v>
+        <v>164</v>
       </c>
       <c r="D10">
-        <v>87</v>
+        <v>164</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1147,19 +1171,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="K10">
-        <v>0.6447368421052632</v>
+        <v>0.7236842105263158</v>
       </c>
       <c r="L10">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="M10">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1171,7 +1195,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1179,13 +1203,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.8113207547169812</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C11">
-        <v>43</v>
+        <v>117</v>
       </c>
       <c r="D11">
-        <v>43</v>
+        <v>117</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1197,19 +1221,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="K11">
-        <v>0.6438356164383562</v>
+        <v>0.675</v>
       </c>
       <c r="L11">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="M11">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1221,7 +1245,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1229,13 +1253,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.7984496124031008</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C12">
-        <v>103</v>
+        <v>78</v>
       </c>
       <c r="D12">
-        <v>103</v>
+        <v>78</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1247,19 +1271,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="K12">
-        <v>0.5945945945945946</v>
+        <v>0.6575342465753424</v>
       </c>
       <c r="L12">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="M12">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1271,7 +1295,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>45</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1279,13 +1303,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.7846153846153846</v>
+        <v>0.863013698630137</v>
       </c>
       <c r="C13">
-        <v>153</v>
+        <v>63</v>
       </c>
       <c r="D13">
-        <v>153</v>
+        <v>63</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1297,19 +1321,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="K13">
-        <v>0.575</v>
+        <v>0.5765765765765766</v>
       </c>
       <c r="L13">
-        <v>23</v>
+        <v>64</v>
       </c>
       <c r="M13">
-        <v>23</v>
+        <v>64</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1321,7 +1345,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>17</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1329,13 +1353,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.7635135135135135</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="C14">
-        <v>113</v>
+        <v>44</v>
       </c>
       <c r="D14">
-        <v>113</v>
+        <v>44</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1347,19 +1371,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="K14">
-        <v>0.5625</v>
+        <v>0.5371428571428571</v>
       </c>
       <c r="L14">
-        <v>27</v>
+        <v>94</v>
       </c>
       <c r="M14">
-        <v>27</v>
+        <v>94</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1371,7 +1395,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>21</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1379,13 +1403,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.7628205128205128</v>
+        <v>0.813953488372093</v>
       </c>
       <c r="C15">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="D15">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1397,19 +1421,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="K15">
-        <v>0.5555555555555556</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="L15">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M15">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1421,7 +1445,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1429,13 +1453,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.7547169811320755</v>
+        <v>0.8088235294117647</v>
       </c>
       <c r="C16">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="D16">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1450,16 +1474,16 @@
         <v>13</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="K16">
-        <v>0.5314285714285715</v>
+        <v>0.5061728395061729</v>
       </c>
       <c r="L16">
-        <v>93</v>
+        <v>41</v>
       </c>
       <c r="M16">
-        <v>93</v>
+        <v>41</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1471,7 +1495,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>82</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1479,13 +1503,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.75</v>
+        <v>0.7924528301886793</v>
       </c>
       <c r="C17">
-        <v>51</v>
+        <v>84</v>
       </c>
       <c r="D17">
-        <v>51</v>
+        <v>84</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1497,19 +1521,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="K17">
-        <v>0.492063492063492</v>
+        <v>0.5</v>
       </c>
       <c r="L17">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="M17">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1521,7 +1545,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1529,13 +1553,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.7471264367816092</v>
+        <v>0.7846153846153846</v>
       </c>
       <c r="C18">
-        <v>65</v>
+        <v>153</v>
       </c>
       <c r="D18">
-        <v>65</v>
+        <v>153</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1547,31 +1571,31 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="K18">
-        <v>0.4782608695652174</v>
+        <v>0.4761904761904762</v>
       </c>
       <c r="L18">
+        <v>30</v>
+      </c>
+      <c r="M18">
+        <v>30</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q18">
         <v>33</v>
-      </c>
-      <c r="M18">
-        <v>33</v>
-      </c>
-      <c r="N18">
-        <v>1</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="P18" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1579,13 +1603,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.7464788732394366</v>
+        <v>0.782051282051282</v>
       </c>
       <c r="C19">
-        <v>53</v>
+        <v>122</v>
       </c>
       <c r="D19">
-        <v>53</v>
+        <v>122</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1597,31 +1621,31 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="K19">
-        <v>0.4706355591311344</v>
+        <v>0.4492753623188406</v>
       </c>
       <c r="L19">
-        <v>585</v>
+        <v>31</v>
       </c>
       <c r="M19">
-        <v>588</v>
+        <v>31</v>
       </c>
       <c r="N19">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O19">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>658</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1629,13 +1653,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.74</v>
+        <v>0.7816091954022989</v>
       </c>
       <c r="C20">
-        <v>37</v>
+        <v>68</v>
       </c>
       <c r="D20">
-        <v>37</v>
+        <v>68</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1647,31 +1671,31 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="K20">
-        <v>0.4691358024691358</v>
+        <v>0.4448025785656728</v>
       </c>
       <c r="L20">
-        <v>38</v>
+        <v>552</v>
       </c>
       <c r="M20">
-        <v>38</v>
+        <v>557</v>
       </c>
       <c r="N20">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q20">
-        <v>43</v>
+        <v>689</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1679,13 +1703,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.7307692307692307</v>
+        <v>0.7605633802816901</v>
       </c>
       <c r="C21">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="D21">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1697,19 +1721,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="K21">
-        <v>0.3802816901408451</v>
+        <v>0.417910447761194</v>
       </c>
       <c r="L21">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M21">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1721,7 +1745,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1729,13 +1753,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.7256637168141593</v>
+        <v>0.75</v>
       </c>
       <c r="C22">
-        <v>82</v>
+        <v>33</v>
       </c>
       <c r="D22">
-        <v>82</v>
+        <v>33</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1747,19 +1771,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="K22">
-        <v>0.34375</v>
+        <v>0.4027777777777778</v>
       </c>
       <c r="L22">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="M22">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1771,7 +1795,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1779,49 +1803,49 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.6666666666666666</v>
+        <v>0.7432432432432432</v>
       </c>
       <c r="C23">
+        <v>110</v>
+      </c>
+      <c r="D23">
+        <v>110</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23" t="b">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>38</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="K23">
+        <v>0.3529411764705883</v>
+      </c>
+      <c r="L23">
+        <v>24</v>
+      </c>
+      <c r="M23">
+        <v>24</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q23">
         <v>44</v>
-      </c>
-      <c r="D23">
-        <v>44</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23" t="b">
-        <v>0</v>
-      </c>
-      <c r="H23">
-        <v>22</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="K23">
-        <v>0.336986301369863</v>
-      </c>
-      <c r="L23">
-        <v>246</v>
-      </c>
-      <c r="M23">
-        <v>246</v>
-      </c>
-      <c r="N23">
-        <v>1</v>
-      </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
-      <c r="P23" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q23">
-        <v>484</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1829,13 +1853,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.6545454545454545</v>
+        <v>0.7352941176470589</v>
       </c>
       <c r="C24">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="D24">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1847,19 +1871,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="K24">
-        <v>0.3076923076923077</v>
+        <v>0.3209876543209876</v>
       </c>
       <c r="L24">
-        <v>32</v>
+        <v>234</v>
       </c>
       <c r="M24">
-        <v>32</v>
+        <v>235</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1868,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="P24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q24">
-        <v>72</v>
+        <v>495</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1879,13 +1903,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.6538461538461539</v>
+        <v>0.717948717948718</v>
       </c>
       <c r="C25">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D25">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1897,31 +1921,31 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="K25">
-        <v>0.2045454545454546</v>
+        <v>0.3085106382978723</v>
       </c>
       <c r="L25">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M25">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N25">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O25">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>105</v>
+        <v>65</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1929,13 +1953,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.65</v>
+        <v>0.7168141592920354</v>
       </c>
       <c r="C26">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="D26">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1947,13 +1971,13 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="K26">
-        <v>0.1655629139072848</v>
+        <v>0.2717391304347826</v>
       </c>
       <c r="L26">
         <v>25</v>
@@ -1971,7 +1995,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>126</v>
+        <v>67</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1979,13 +2003,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.6363636363636364</v>
+        <v>0.7115384615384616</v>
       </c>
       <c r="C27">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="D27">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1997,19 +2021,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="K27">
-        <v>0.1377245508982036</v>
+        <v>0.2596153846153846</v>
       </c>
       <c r="L27">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="M27">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -2021,7 +2045,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>144</v>
+        <v>77</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2029,13 +2053,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.625</v>
+        <v>0.7090909090909091</v>
       </c>
       <c r="C28">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="D28">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2047,31 +2071,31 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="K28">
-        <v>0.1351351351351351</v>
+        <v>0.183206106870229</v>
       </c>
       <c r="L28">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="M28">
-        <v>56</v>
+        <v>24</v>
       </c>
       <c r="N28">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O28">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q28">
-        <v>352</v>
+        <v>107</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2079,13 +2103,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.6172839506172839</v>
+        <v>0.6565656565656566</v>
       </c>
       <c r="C29">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="D29">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2097,19 +2121,19 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="K29">
-        <v>0.1325301204819277</v>
+        <v>0.1729323308270677</v>
       </c>
       <c r="L29">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M29">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2121,7 +2145,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>144</v>
+        <v>110</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2129,13 +2153,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.6116504854368932</v>
+        <v>0.6407766990291263</v>
       </c>
       <c r="C30">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D30">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2147,31 +2171,31 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="K30">
-        <v>0.0576923076923077</v>
+        <v>0.1655629139072848</v>
       </c>
       <c r="L30">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M30">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="N30">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="O30">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="P30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q30">
-        <v>392</v>
+        <v>126</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2179,13 +2203,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.5952380952380952</v>
+        <v>0.625</v>
       </c>
       <c r="C31">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="D31">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2197,31 +2221,31 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="K31">
-        <v>0.05305039787798409</v>
+        <v>0.1385542168674699</v>
       </c>
       <c r="L31">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="M31">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="N31">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O31">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q31">
-        <v>714</v>
+        <v>143</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2229,13 +2253,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.5769230769230769</v>
+        <v>0.6222222222222222</v>
       </c>
       <c r="C32">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D32">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2247,31 +2271,31 @@
         <v>0</v>
       </c>
       <c r="H32">
+        <v>17</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="K32">
+        <v>0.1317365269461078</v>
+      </c>
+      <c r="L32">
         <v>22</v>
       </c>
-      <c r="J32" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="K32">
-        <v>0.04498714652956298</v>
-      </c>
-      <c r="L32">
-        <v>35</v>
-      </c>
       <c r="M32">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="N32">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="O32">
-        <v>0.09999999999999998</v>
+        <v>0</v>
       </c>
       <c r="P32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q32">
-        <v>743</v>
+        <v>145</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2279,13 +2303,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.5769230769230769</v>
+        <v>0.62</v>
       </c>
       <c r="C33">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D33">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2297,31 +2321,31 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="K33">
-        <v>0.03463203463203463</v>
+        <v>0.1274509803921569</v>
       </c>
       <c r="L33">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="M33">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="N33">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="O33">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="P33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q33">
-        <v>892</v>
+        <v>356</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2329,13 +2353,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.5757575757575758</v>
+        <v>0.6057692307692307</v>
       </c>
       <c r="C34">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="D34">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2347,7 +2371,31 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>42</v>
+        <v>41</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="K34">
+        <v>0.1196172248803828</v>
+      </c>
+      <c r="L34">
+        <v>25</v>
+      </c>
+      <c r="M34">
+        <v>25</v>
+      </c>
+      <c r="N34">
+        <v>1</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>184</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2355,25 +2403,49 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.5555555555555556</v>
+        <v>0.5909090909090909</v>
       </c>
       <c r="C35">
+        <v>26</v>
+      </c>
+      <c r="D35">
+        <v>26</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35" t="b">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>18</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="K35">
+        <v>0.07211538461538461</v>
+      </c>
+      <c r="L35">
         <v>30</v>
       </c>
-      <c r="D35">
-        <v>30</v>
-      </c>
-      <c r="E35">
-        <v>0</v>
-      </c>
-      <c r="F35">
-        <v>1</v>
-      </c>
-      <c r="G35" t="b">
-        <v>0</v>
-      </c>
-      <c r="H35">
-        <v>24</v>
+      <c r="M35">
+        <v>33</v>
+      </c>
+      <c r="N35">
+        <v>0.91</v>
+      </c>
+      <c r="O35">
+        <v>0.08999999999999997</v>
+      </c>
+      <c r="P35" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q35">
+        <v>386</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -2381,13 +2453,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.5474860335195531</v>
+        <v>0.5747126436781609</v>
       </c>
       <c r="C36">
-        <v>98</v>
+        <v>50</v>
       </c>
       <c r="D36">
-        <v>98</v>
+        <v>50</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2399,7 +2471,31 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>81</v>
+        <v>37</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="K36">
+        <v>0.05858854860186418</v>
+      </c>
+      <c r="L36">
+        <v>44</v>
+      </c>
+      <c r="M36">
+        <v>48</v>
+      </c>
+      <c r="N36">
+        <v>0.92</v>
+      </c>
+      <c r="O36">
+        <v>0.07999999999999996</v>
+      </c>
+      <c r="P36" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q36">
+        <v>707</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -2407,13 +2503,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.5333333333333333</v>
+        <v>0.5586592178770949</v>
       </c>
       <c r="C37">
-        <v>24</v>
+        <v>100</v>
       </c>
       <c r="D37">
-        <v>24</v>
+        <v>100</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2425,7 +2521,31 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>21</v>
+        <v>79</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="K37">
+        <v>0.05648267008985879</v>
+      </c>
+      <c r="L37">
+        <v>44</v>
+      </c>
+      <c r="M37">
+        <v>47</v>
+      </c>
+      <c r="N37">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="O37">
+        <v>0.06000000000000005</v>
+      </c>
+      <c r="P37" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q37">
+        <v>735</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -2433,13 +2553,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.5172413793103449</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="C38">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="D38">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2451,7 +2571,31 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>42</v>
+        <v>30</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="K38">
+        <v>0.05211726384364821</v>
+      </c>
+      <c r="L38">
+        <v>48</v>
+      </c>
+      <c r="M38">
+        <v>56</v>
+      </c>
+      <c r="N38">
+        <v>0.86</v>
+      </c>
+      <c r="O38">
+        <v>0.14</v>
+      </c>
+      <c r="P38" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q38">
+        <v>873</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -2459,13 +2603,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.4698795180722892</v>
+        <v>0.53</v>
       </c>
       <c r="C39">
-        <v>39</v>
+        <v>106</v>
       </c>
       <c r="D39">
-        <v>39</v>
+        <v>106</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2477,7 +2621,7 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>44</v>
+        <v>94</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -2485,13 +2629,13 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.45</v>
+        <v>0.5061728395061729</v>
       </c>
       <c r="C40">
-        <v>90</v>
+        <v>41</v>
       </c>
       <c r="D40">
-        <v>90</v>
+        <v>41</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2503,7 +2647,7 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>110</v>
+        <v>40</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -2511,13 +2655,13 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.4231805929919137</v>
+        <v>0.5</v>
       </c>
       <c r="C41">
-        <v>157</v>
+        <v>27</v>
       </c>
       <c r="D41">
-        <v>157</v>
+        <v>27</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2529,7 +2673,7 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>214</v>
+        <v>27</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -2537,13 +2681,13 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.4230769230769231</v>
+        <v>0.4948453608247423</v>
       </c>
       <c r="C42">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="D42">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2555,7 +2699,7 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>30</v>
+        <v>49</v>
       </c>
     </row>
     <row r="43" spans="1:17">
@@ -2563,13 +2707,13 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.4142857142857143</v>
+        <v>0.4915254237288136</v>
       </c>
       <c r="C43">
-        <v>87</v>
+        <v>29</v>
       </c>
       <c r="D43">
-        <v>87</v>
+        <v>29</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -2581,7 +2725,7 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>123</v>
+        <v>30</v>
       </c>
     </row>
     <row r="44" spans="1:17">
@@ -2589,13 +2733,13 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.4067796610169492</v>
+        <v>0.4888888888888889</v>
       </c>
       <c r="C44">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D44">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -2607,7 +2751,7 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>35</v>
+        <v>23</v>
       </c>
     </row>
     <row r="45" spans="1:17">
@@ -2615,13 +2759,13 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.3838383838383838</v>
+        <v>0.4841269841269841</v>
       </c>
       <c r="C45">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="D45">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -2633,7 +2777,7 @@
         <v>0</v>
       </c>
       <c r="H45">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="46" spans="1:17">
@@ -2641,13 +2785,13 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.3774834437086093</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="C46">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="D46">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -2659,7 +2803,7 @@
         <v>0</v>
       </c>
       <c r="H46">
-        <v>94</v>
+        <v>55</v>
       </c>
     </row>
     <row r="47" spans="1:17">
@@ -2667,13 +2811,13 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.3693693693693694</v>
+        <v>0.4380952380952381</v>
       </c>
       <c r="C47">
-        <v>41</v>
+        <v>92</v>
       </c>
       <c r="D47">
-        <v>41</v>
+        <v>92</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -2685,7 +2829,7 @@
         <v>0</v>
       </c>
       <c r="H47">
-        <v>70</v>
+        <v>118</v>
       </c>
     </row>
     <row r="48" spans="1:17">
@@ -2693,25 +2837,25 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.3672316384180791</v>
+        <v>0.4210526315789473</v>
       </c>
       <c r="C48">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="D48">
-        <v>66</v>
+        <v>32</v>
       </c>
       <c r="E48">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F48">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H48">
-        <v>112</v>
+        <v>44</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2719,13 +2863,13 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.3608247422680412</v>
+        <v>0.4123989218328841</v>
       </c>
       <c r="C49">
-        <v>35</v>
+        <v>153</v>
       </c>
       <c r="D49">
-        <v>35</v>
+        <v>153</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -2737,7 +2881,7 @@
         <v>0</v>
       </c>
       <c r="H49">
-        <v>62</v>
+        <v>218</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2745,13 +2889,13 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.3552631578947368</v>
+        <v>0.3798449612403101</v>
       </c>
       <c r="C50">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="D50">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -2763,7 +2907,7 @@
         <v>0</v>
       </c>
       <c r="H50">
-        <v>49</v>
+        <v>80</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2771,25 +2915,25 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.3435374149659864</v>
+        <v>0.3311258278145696</v>
       </c>
       <c r="C51">
+        <v>50</v>
+      </c>
+      <c r="D51">
+        <v>50</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>1</v>
+      </c>
+      <c r="G51" t="b">
+        <v>0</v>
+      </c>
+      <c r="H51">
         <v>101</v>
-      </c>
-      <c r="D51">
-        <v>101</v>
-      </c>
-      <c r="E51">
-        <v>0</v>
-      </c>
-      <c r="F51">
-        <v>1</v>
-      </c>
-      <c r="G51" t="b">
-        <v>0</v>
-      </c>
-      <c r="H51">
-        <v>193</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2797,13 +2941,13 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.3398058252427185</v>
+        <v>0.3258426966292135</v>
       </c>
       <c r="C52">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="D52">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -2815,7 +2959,7 @@
         <v>0</v>
       </c>
       <c r="H52">
-        <v>68</v>
+        <v>120</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2823,13 +2967,13 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.3225806451612903</v>
+        <v>0.3163265306122449</v>
       </c>
       <c r="C53">
-        <v>60</v>
+        <v>93</v>
       </c>
       <c r="D53">
-        <v>60</v>
+        <v>93</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -2841,7 +2985,7 @@
         <v>0</v>
       </c>
       <c r="H53">
-        <v>126</v>
+        <v>201</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2849,13 +2993,13 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.2689655172413793</v>
+        <v>0.3009708737864077</v>
       </c>
       <c r="C54">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="D54">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -2867,7 +3011,7 @@
         <v>0</v>
       </c>
       <c r="H54">
-        <v>106</v>
+        <v>72</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2875,13 +3019,13 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>0.2408163265306122</v>
+        <v>0.2903225806451613</v>
       </c>
       <c r="C55">
-        <v>177</v>
+        <v>54</v>
       </c>
       <c r="D55">
-        <v>177</v>
+        <v>54</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -2893,7 +3037,7 @@
         <v>0</v>
       </c>
       <c r="H55">
-        <v>558</v>
+        <v>132</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2901,13 +3045,13 @@
         <v>61</v>
       </c>
       <c r="B56">
-        <v>0.2240802675585284</v>
+        <v>0.2896551724137931</v>
       </c>
       <c r="C56">
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="D56">
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -2919,7 +3063,7 @@
         <v>0</v>
       </c>
       <c r="H56">
-        <v>232</v>
+        <v>103</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2927,13 +3071,13 @@
         <v>62</v>
       </c>
       <c r="B57">
-        <v>0.2170542635658915</v>
+        <v>0.2882882882882883</v>
       </c>
       <c r="C57">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D57">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -2945,7 +3089,7 @@
         <v>0</v>
       </c>
       <c r="H57">
-        <v>101</v>
+        <v>79</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2953,13 +3097,13 @@
         <v>63</v>
       </c>
       <c r="B58">
-        <v>0.2070707070707071</v>
+        <v>0.2771084337349398</v>
       </c>
       <c r="C58">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="D58">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -2971,7 +3115,7 @@
         <v>0</v>
       </c>
       <c r="H58">
-        <v>157</v>
+        <v>60</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2979,25 +3123,25 @@
         <v>64</v>
       </c>
       <c r="B59">
-        <v>0.2</v>
+        <v>0.2619047619047619</v>
       </c>
       <c r="C59">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="D59">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="E59">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="F59">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="G59" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H59">
-        <v>132</v>
+        <v>62</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -3005,13 +3149,13 @@
         <v>65</v>
       </c>
       <c r="B60">
-        <v>0.1877729257641921</v>
+        <v>0.2619047619047619</v>
       </c>
       <c r="C60">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="D60">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -3023,7 +3167,7 @@
         <v>0</v>
       </c>
       <c r="H60">
-        <v>186</v>
+        <v>62</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -3031,25 +3175,25 @@
         <v>66</v>
       </c>
       <c r="B61">
-        <v>0.1712707182320442</v>
+        <v>0.2448979591836735</v>
       </c>
       <c r="C61">
-        <v>31</v>
+        <v>180</v>
       </c>
       <c r="D61">
-        <v>32</v>
+        <v>180</v>
       </c>
       <c r="E61">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="F61">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="G61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H61">
-        <v>150</v>
+        <v>555</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -3057,25 +3201,25 @@
         <v>67</v>
       </c>
       <c r="B62">
-        <v>0.1566579634464752</v>
+        <v>0.2375690607734807</v>
       </c>
       <c r="C62">
-        <v>120</v>
+        <v>43</v>
       </c>
       <c r="D62">
-        <v>121</v>
+        <v>44</v>
       </c>
       <c r="E62">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="F62">
-        <v>0.99</v>
+        <v>0.98</v>
       </c>
       <c r="G62" t="b">
         <v>1</v>
       </c>
       <c r="H62">
-        <v>646</v>
+        <v>138</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -3083,25 +3227,25 @@
         <v>68</v>
       </c>
       <c r="B63">
-        <v>0.1365853658536585</v>
+        <v>0.233502538071066</v>
       </c>
       <c r="C63">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="D63">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="E63">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F63">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H63">
-        <v>354</v>
+        <v>151</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -3109,13 +3253,13 @@
         <v>69</v>
       </c>
       <c r="B64">
-        <v>0.1263736263736264</v>
+        <v>0.2140468227424749</v>
       </c>
       <c r="C64">
-        <v>23</v>
+        <v>64</v>
       </c>
       <c r="D64">
-        <v>23</v>
+        <v>64</v>
       </c>
       <c r="E64">
         <v>0</v>
@@ -3127,7 +3271,7 @@
         <v>0</v>
       </c>
       <c r="H64">
-        <v>159</v>
+        <v>235</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -3135,25 +3279,25 @@
         <v>70</v>
       </c>
       <c r="B65">
-        <v>0.1072463768115942</v>
+        <v>0.1830065359477124</v>
       </c>
       <c r="C65">
-        <v>37</v>
+        <v>140</v>
       </c>
       <c r="D65">
-        <v>37</v>
+        <v>142</v>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F65">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="G65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H65">
-        <v>308</v>
+        <v>625</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -3161,13 +3305,13 @@
         <v>71</v>
       </c>
       <c r="B66">
-        <v>0.09926470588235294</v>
+        <v>0.1790393013100437</v>
       </c>
       <c r="C66">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="D66">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="E66">
         <v>0</v>
@@ -3179,7 +3323,7 @@
         <v>0</v>
       </c>
       <c r="H66">
-        <v>245</v>
+        <v>188</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -3187,25 +3331,25 @@
         <v>72</v>
       </c>
       <c r="B67">
-        <v>0.08539944903581267</v>
+        <v>0.1456953642384106</v>
       </c>
       <c r="C67">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="D67">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="E67">
-        <v>0.06</v>
+        <v>0.04</v>
       </c>
       <c r="F67">
-        <v>0.9399999999999999</v>
+        <v>0.96</v>
       </c>
       <c r="G67" t="b">
         <v>1</v>
       </c>
       <c r="H67">
-        <v>332</v>
+        <v>129</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -3213,25 +3357,25 @@
         <v>73</v>
       </c>
       <c r="B68">
-        <v>0.07653061224489796</v>
+        <v>0.1295843520782396</v>
       </c>
       <c r="C68">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="D68">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="E68">
-        <v>0.06</v>
+        <v>0.02</v>
       </c>
       <c r="F68">
-        <v>0.9399999999999999</v>
+        <v>0.98</v>
       </c>
       <c r="G68" t="b">
         <v>1</v>
       </c>
       <c r="H68">
-        <v>362</v>
+        <v>356</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -3239,25 +3383,25 @@
         <v>74</v>
       </c>
       <c r="B69">
-        <v>0.06829268292682927</v>
+        <v>0.1014492753623188</v>
       </c>
       <c r="C69">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="D69">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E69">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="F69">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="G69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H69">
-        <v>382</v>
+        <v>310</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3265,25 +3409,25 @@
         <v>75</v>
       </c>
       <c r="B70">
-        <v>0.06601466992665037</v>
+        <v>0.09644670050761421</v>
       </c>
       <c r="C70">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="D70">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="E70">
-        <v>0.07000000000000001</v>
+        <v>0</v>
       </c>
       <c r="F70">
-        <v>0.9299999999999999</v>
+        <v>1</v>
       </c>
       <c r="G70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H70">
-        <v>382</v>
+        <v>356</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3291,25 +3435,25 @@
         <v>76</v>
       </c>
       <c r="B71">
-        <v>0.06189555125725339</v>
+        <v>0.09269662921348315</v>
       </c>
       <c r="C71">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D71">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E71">
-        <v>0.14</v>
+        <v>0.06</v>
       </c>
       <c r="F71">
-        <v>0.86</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G71" t="b">
         <v>1</v>
       </c>
       <c r="H71">
-        <v>485</v>
+        <v>323</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3317,25 +3461,25 @@
         <v>77</v>
       </c>
       <c r="B72">
-        <v>0.06027397260273973</v>
+        <v>0.08856088560885608</v>
       </c>
       <c r="C72">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D72">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E72">
-        <v>0.21</v>
+        <v>0.04</v>
       </c>
       <c r="F72">
-        <v>0.79</v>
+        <v>0.96</v>
       </c>
       <c r="G72" t="b">
         <v>1</v>
       </c>
       <c r="H72">
-        <v>343</v>
+        <v>247</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3343,25 +3487,25 @@
         <v>78</v>
       </c>
       <c r="B73">
-        <v>0.05313588850174216</v>
+        <v>0.0851581508515815</v>
       </c>
       <c r="C73">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="D73">
-        <v>70</v>
+        <v>38</v>
       </c>
       <c r="E73">
-        <v>0.13</v>
+        <v>0.08</v>
       </c>
       <c r="F73">
-        <v>0.87</v>
+        <v>0.92</v>
       </c>
       <c r="G73" t="b">
         <v>1</v>
       </c>
       <c r="H73">
-        <v>1087</v>
+        <v>376</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3369,25 +3513,103 @@
         <v>79</v>
       </c>
       <c r="B74">
-        <v>0.03574788334901223</v>
+        <v>0.07321772639691715</v>
       </c>
       <c r="C74">
         <v>38</v>
       </c>
       <c r="D74">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E74">
-        <v>0.19</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F74">
-        <v>0.8100000000000001</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="G74" t="b">
         <v>1</v>
       </c>
       <c r="H74">
-        <v>1025</v>
+        <v>481</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
+      <c r="A75" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B75">
+        <v>0.05651105651105651</v>
+      </c>
+      <c r="C75">
+        <v>23</v>
+      </c>
+      <c r="D75">
+        <v>27</v>
+      </c>
+      <c r="E75">
+        <v>0.15</v>
+      </c>
+      <c r="F75">
+        <v>0.85</v>
+      </c>
+      <c r="G75" t="b">
+        <v>1</v>
+      </c>
+      <c r="H75">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
+      <c r="A76" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B76">
+        <v>0.05589519650655022</v>
+      </c>
+      <c r="C76">
+        <v>64</v>
+      </c>
+      <c r="D76">
+        <v>76</v>
+      </c>
+      <c r="E76">
+        <v>0.16</v>
+      </c>
+      <c r="F76">
+        <v>0.84</v>
+      </c>
+      <c r="G76" t="b">
+        <v>1</v>
+      </c>
+      <c r="H76">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
+      <c r="A77" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B77">
+        <v>0.05534709193245779</v>
+      </c>
+      <c r="C77">
+        <v>59</v>
+      </c>
+      <c r="D77">
+        <v>65</v>
+      </c>
+      <c r="E77">
+        <v>0.09</v>
+      </c>
+      <c r="F77">
+        <v>0.91</v>
+      </c>
+      <c r="G77" t="b">
+        <v>1</v>
+      </c>
+      <c r="H77">
+        <v>1007</v>
       </c>
     </row>
   </sheetData>
